--- a/ISAD/07 - Work plan.xlsx
+++ b/ISAD/07 - Work plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KMITL\Project Panda - Documents\ISAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kmitlthailand.sharepoint.com/sites/ProjectFountain926/Shared Documents/panda-report/ISAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_046D7EC2F8FF96B187FB09BC5018844F176281C0" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{39EA6799-9C1F-40FE-9C87-5FFABC567403}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_046D7EC2F8FF96B187FB09BC5018844F176281C0" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{21F48AA5-DA4F-47F9-B90B-117D5C141BD1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="17565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>Collect system requirements</t>
   </si>
@@ -96,21 +96,6 @@
     <t>1, 2, 3, 4, 5</t>
   </si>
   <si>
-    <t>นายคุณานนต์ ศรีสันติโรจน์</t>
-  </si>
-  <si>
-    <t>นายกวิน เรืองประทีปแสง</t>
-  </si>
-  <si>
-    <t>นายฐิติภัทร วรรัตน์</t>
-  </si>
-  <si>
-    <t>นายนาธาร เยี่ยงศุภพานนทร์</t>
-  </si>
-  <si>
-    <t>นายพรพรหม เขียวจักร์</t>
-  </si>
-  <si>
     <t>1, 4, 5</t>
   </si>
   <si>
@@ -178,6 +163,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Kavin Ruengprateepsang</t>
+  </si>
+  <si>
+    <t>Kunanon Srisuntiroj</t>
+  </si>
+  <si>
+    <t>Thitipat Worrarat</t>
+  </si>
+  <si>
+    <t>Nathan Yiangsupapaanontr</t>
+  </si>
+  <si>
+    <t>Pornprom Kiawjak</t>
   </si>
 </sst>
 </file>
@@ -187,17 +187,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]dd\ mmm\ yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="TH Sarabun New"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -294,105 +288,105 @@
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1996,17 +1990,17 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="7" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="35" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="29" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="7" customWidth="1"/>
     <col min="9" max="9" width="4.85546875" style="7" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" style="8"/>
@@ -2025,871 +2019,871 @@
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="13"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="13"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="17">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14">
         <f>MIN(F6:F8)</f>
         <v>43110</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="14">
         <f>MAX(G6:G8)</f>
         <v>43128</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="15">
         <f>(_xlfn.DAYS(G5,F5))</f>
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="22">
+      <c r="B6" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="24">
+      <c r="E6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="18">
         <v>43110</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="18">
         <v>43116</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="16">
         <f t="shared" ref="H6:H38" si="0">(_xlfn.DAYS(G6,F6))</f>
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="22">
+      <c r="B7" s="16">
         <v>1.2</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="24">
+      <c r="E7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="18">
         <v>43117</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="18">
         <v>43128</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="22">
+      <c r="B8" s="16">
         <v>1.3</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="24">
+      <c r="E8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="18">
         <v>43110</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="18">
         <v>43128</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="21"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="28">
+      <c r="B10" s="22">
         <v>2</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="27">
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="21">
         <f>MIN(F11:F14)</f>
         <v>43129</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="21">
         <f>MAX(G11:G14)</f>
         <v>43159</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="22">
+      <c r="B11" s="16">
         <v>2.1</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="24">
+      <c r="E11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="18">
         <v>43129</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="18">
         <v>43136</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="22">
+      <c r="B12" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="16">
         <v>1</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="24">
+      <c r="E12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="18">
         <v>43137</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="18">
         <v>43143</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="22">
+      <c r="B13" s="16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="16">
         <v>1</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="24">
+      <c r="E13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="18">
         <v>43144</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="18">
         <v>43150</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="22">
+      <c r="B14" s="16">
         <v>2.4</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="22">
+      <c r="C14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="16">
         <v>1</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="24">
+      <c r="E14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="18">
         <v>43151</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="18">
         <v>43159</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="30"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="25">
+      <c r="B16" s="19">
         <v>3</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="27">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="21">
         <f>MIN(F17:F21)</f>
         <v>43160</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="21">
         <f>MAX(G17:G21)</f>
         <v>43197</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="24">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="22">
+      <c r="B17" s="16">
         <v>3.1</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="22">
+      <c r="C17" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="16">
         <v>2</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="24">
+      <c r="E17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="18">
         <v>43160</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="18">
         <v>43165</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="22">
+      <c r="B18" s="16">
         <v>3.2</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="22">
+      <c r="C18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="16">
         <v>2</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="24">
+      <c r="E18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="18">
         <v>43166</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="18">
         <v>43167</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="22">
+      <c r="B19" s="16">
         <v>3.3</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="22">
+      <c r="C19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="16">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="24">
+      <c r="E19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="18">
         <v>43176</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="18">
         <v>43177</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="22">
+      <c r="B20" s="16">
         <v>3.4</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="22">
+      <c r="C20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="16">
         <v>5.2</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="24">
+      <c r="E20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="18">
         <v>43186</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="18">
         <v>43187</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="22">
+      <c r="B21" s="16">
         <v>3.5</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="22">
+      <c r="C21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="16">
         <v>5.3</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="24">
+      <c r="E21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="18">
         <v>43196</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="18">
         <v>43197</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="30"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="25">
+      <c r="B23" s="19">
         <v>4</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="27">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="21">
         <f>MIN(F24:F27)</f>
         <v>43168</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="21">
         <f>MAX(G24:G27)</f>
         <v>43202</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="24">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="22">
+      <c r="B24" s="16">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="22">
+      <c r="C24" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="16">
         <v>3.1</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="18">
         <v>43168</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="18">
         <v>43172</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="22">
+      <c r="B25" s="16">
         <v>4.2</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="22">
+      <c r="C25" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="16">
         <v>3.2</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="18">
         <v>43178</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="18">
         <v>43182</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="22">
+      <c r="B26" s="16">
         <v>4.3</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="22">
+      <c r="C26" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="16">
         <v>3.3</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="18">
         <v>43188</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="18">
         <v>43192</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="22">
+      <c r="B27" s="16">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="22">
+      <c r="C27" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="16">
         <v>3.4</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="18">
         <v>43198</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="18">
         <v>43202</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="30"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="25">
+      <c r="B29" s="19">
         <v>5</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="27">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="21">
         <f>MIN(F30:F33)</f>
         <v>43173</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="21">
         <f>MAX(G30:G33)</f>
         <v>43205</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="24">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="22">
+      <c r="B30" s="16">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="22">
+      <c r="C30" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="16">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="18">
         <v>43173</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="18">
         <v>43175</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="22">
+      <c r="B31" s="16">
         <v>5.2</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="22">
+      <c r="C31" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="16">
         <v>4.2</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="18">
         <v>43183</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="18">
         <v>43185</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="22">
+      <c r="B32" s="16">
         <v>5.3</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="22">
+      <c r="C32" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="16">
         <v>4.3</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="18">
         <v>43193</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="18">
         <v>43195</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="22">
+      <c r="B33" s="16">
         <v>5.4</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="22">
+      <c r="C33" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="16">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="18">
         <v>43203</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="18">
         <v>43205</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="21"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="25">
+      <c r="B35" s="19">
         <v>6</v>
       </c>
-      <c r="C35" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="27">
+      <c r="C35" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="21">
         <f>MIN(F36:F39)</f>
         <v>43206</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="21">
         <f>MAX(G36:G38)</f>
         <v>43212</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="22">
+      <c r="B36" s="16">
         <v>6.1</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="24">
+      <c r="E36" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="18">
         <v>43206</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="18">
         <v>43212</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="22">
+      <c r="B37" s="16">
         <v>6.2</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="24">
+      <c r="E37" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="18">
         <v>43208</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="18">
         <v>43212</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H37" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="22">
+      <c r="B38" s="16">
         <v>6.3</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="24">
+      <c r="D38" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="18">
         <v>43206</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="18">
         <v>43212</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="36">
+      <c r="B41" s="30">
         <v>1</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="34">
+        <v>46</v>
+      </c>
+      <c r="D41" s="28">
         <v>59070009</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="36">
+      <c r="B42" s="30">
         <v>2</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="34">
+        <v>47</v>
+      </c>
+      <c r="D42" s="28">
         <v>59070022</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="36">
+      <c r="B43" s="30">
         <v>3</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="34">
+        <v>48</v>
+      </c>
+      <c r="D43" s="28">
         <v>59070043</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="36">
+      <c r="B44" s="30">
         <v>4</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="34">
+        <v>49</v>
+      </c>
+      <c r="D44" s="28">
         <v>59070087</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="36">
+      <c r="B45" s="30">
         <v>5</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="34">
+        <v>50</v>
+      </c>
+      <c r="D45" s="28">
         <v>59070113</v>
       </c>
     </row>
@@ -2904,17 +2898,14 @@
     <mergeCell ref="D2:D4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3070,35 +3061,52 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84BAB9AF-D7E3-4935-902D-F19D2D3AE227}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="360d23a6-f195-4c5c-b5bb-19aa4319b9ef"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2627D2E6-4B24-4613-8E49-3AC75E278B25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="360d23a6-f195-4c5c-b5bb-19aa4319b9ef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FB229F0-8222-4E0E-98F5-97B5EFBD90CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2627D2E6-4B24-4613-8E49-3AC75E278B25}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84BAB9AF-D7E3-4935-902D-F19D2D3AE227}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="360d23a6-f195-4c5c-b5bb-19aa4319b9ef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>